--- a/Annual_V2.xlsx
+++ b/Annual_V2.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\VIstas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\Dashboard_NIBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C297523B-65EA-41E3-8D81-3A6AA1300446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8EB8B-1645-44D1-8937-7A8B9623B98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="7" xr2:uid="{53836420-D36C-410F-ABBE-B356CDD75E29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="Sheet2" sheetId="12" r:id="rId10"/>
     <sheet name="Grupo Q" sheetId="6" state="hidden" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2420,6 +2420,18 @@
     <xf numFmtId="9" fontId="28" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2432,26 +2444,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2462,7 +2459,16 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2483,6 +2489,9 @@
     <xf numFmtId="0" fontId="13" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2490,15 +2499,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3978,6 +3978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D8C822-2E1A-472D-9527-19300F826E3C}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="E2:Q91"/>
   <sheetViews>
     <sheetView topLeftCell="C70" zoomScale="146" workbookViewId="0">
@@ -6498,6 +6499,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC6E6BC-CD89-424E-8BAE-811F91A8A0E4}">
+  <sheetPr codeName="Hoja10"/>
   <dimension ref="C1:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6517,14 +6519,14 @@
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="293" t="s">
+      <c r="C2" s="283" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="295"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="285"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="214">
@@ -6539,7 +6541,7 @@
       <c r="F3" s="215">
         <v>0.04</v>
       </c>
-      <c r="G3" s="290">
+      <c r="G3" s="293">
         <v>0.04</v>
       </c>
       <c r="H3" s="298"/>
@@ -6557,7 +6559,7 @@
       <c r="F4" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="283" t="s">
+      <c r="G4" s="292" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="297"/>
@@ -6597,11 +6599,11 @@
     <row r="6" spans="3:15" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="3:15" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="284" t="s">
+      <c r="D8" s="286" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="286"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="288"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D9" s="217">
@@ -6639,11 +6641,11 @@
     <row r="12" spans="3:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="3:15" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="287" t="s">
+      <c r="D14" s="289" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="288"/>
-      <c r="F14" s="289"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="291"/>
     </row>
     <row r="15" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="241">
@@ -6709,6 +6711,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D32BB4-F71A-486A-99B4-6E6230CC9A7A}">
+  <sheetPr codeName="Hoja11"/>
   <dimension ref="B4:X7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6996,17 +6999,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C7">
     <cfRule type="iconSet" priority="12">
@@ -7113,6 +7116,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06EC0F1-0691-49A5-A6BE-A00AAA093189}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:BB87"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="146" workbookViewId="0">
@@ -7212,25 +7216,25 @@
       </c>
     </row>
     <row r="3" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="269" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="275" t="s">
+      <c r="C3" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="275" t="s">
+      <c r="D3" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="275" t="s">
+      <c r="E3" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="273" t="s">
+      <c r="F3" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="273" t="s">
+      <c r="G3" s="271" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="273" t="s">
+      <c r="H3" s="271" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -7248,17 +7252,17 @@
       <c r="N3">
         <v>5</v>
       </c>
-      <c r="S3" s="269" t="s">
+      <c r="S3" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="269"/>
-      <c r="U3" s="269"/>
+      <c r="T3" s="273"/>
+      <c r="U3" s="273"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="269" t="s">
+      <c r="W3" s="273" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="269"/>
-      <c r="Y3" s="269"/>
+      <c r="X3" s="273"/>
+      <c r="Y3" s="273"/>
       <c r="AA3">
         <v>1</v>
       </c>
@@ -7268,23 +7272,23 @@
       <c r="AC3">
         <v>3</v>
       </c>
-      <c r="AE3" s="270" t="s">
+      <c r="AE3" s="274" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="270"/>
-      <c r="AG3" s="270"/>
-      <c r="AH3" s="270"/>
-      <c r="AK3" s="272" t="s">
+      <c r="AF3" s="274"/>
+      <c r="AG3" s="274"/>
+      <c r="AH3" s="274"/>
+      <c r="AK3" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="272"/>
-      <c r="AM3" s="272"/>
-      <c r="AN3" s="271" t="s">
+      <c r="AL3" s="276"/>
+      <c r="AM3" s="276"/>
+      <c r="AN3" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="271"/>
-      <c r="AP3" s="271"/>
-      <c r="AQ3" s="271"/>
+      <c r="AO3" s="275"/>
+      <c r="AP3" s="275"/>
+      <c r="AQ3" s="275"/>
       <c r="AT3">
         <v>1</v>
       </c>
@@ -7314,13 +7318,13 @@
       </c>
     </row>
     <row r="4" spans="2:54" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="276"/>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
+      <c r="B4" s="270"/>
+      <c r="C4" s="270"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
       <c r="J4" s="20" t="s">
         <v>1</v>
       </c>
@@ -10851,28 +10855,28 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="275" t="s">
+      <c r="B56" s="269" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="273" t="s">
+      <c r="C56" s="271" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="273" t="s">
+      <c r="D56" s="271" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="273" t="s">
+      <c r="E56" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="273" t="s">
+      <c r="F56" s="271" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="276"/>
-      <c r="C57" s="274"/>
-      <c r="D57" s="274"/>
-      <c r="E57" s="274"/>
-      <c r="F57" s="274"/>
+      <c r="B57" s="270"/>
+      <c r="C57" s="272"/>
+      <c r="D57" s="272"/>
+      <c r="E57" s="272"/>
+      <c r="F57" s="272"/>
       <c r="I57" s="12" t="s">
         <v>91</v>
       </c>
@@ -11475,23 +11479,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <conditionalFormatting sqref="O18">
     <cfRule type="cellIs" dxfId="56" priority="4" operator="lessThan">
@@ -11517,6 +11521,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E725A6-1372-48C2-8470-B631C54B4B97}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:AM95"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="127" workbookViewId="0">
@@ -11580,34 +11585,34 @@
       </c>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B3" s="275" t="s">
+      <c r="B3" s="269" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="275" t="s">
+      <c r="C3" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="273" t="s">
+      <c r="D3" s="271" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="275" t="s">
+      <c r="E3" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="273" t="s">
+      <c r="F3" s="271" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="273" t="s">
+      <c r="G3" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="273" t="s">
+      <c r="H3" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="273" t="s">
+      <c r="I3" s="271" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="273" t="s">
+      <c r="J3" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="273" t="s">
+      <c r="K3" s="271" t="s">
         <v>93</v>
       </c>
       <c r="AB3" s="20" t="s">
@@ -11639,16 +11644,16 @@
       </c>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B4" s="276"/>
-      <c r="C4" s="276"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
+      <c r="B4" s="270"/>
+      <c r="C4" s="270"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
       <c r="M4" s="102" t="s">
         <v>34</v>
       </c>
@@ -16305,16 +16310,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16322,6 +16327,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81AA2F4-B071-4281-A6FA-F3FEB648D692}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="B3:N73"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
@@ -18739,6 +18745,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36CE07B-16EF-441F-8D6E-113FD42BBE91}">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="B1:BO75"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="103" workbookViewId="0">
@@ -18947,10 +18954,10 @@
       <c r="AB3" s="11">
         <v>7</v>
       </c>
-      <c r="AC3" s="270" t="s">
+      <c r="AC3" s="274" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" s="270"/>
+      <c r="AD3" s="274"/>
       <c r="AE3" s="278" t="s">
         <v>162</v>
       </c>
@@ -19064,64 +19071,64 @@
       <c r="T4" s="27">
         <v>0.96701655572623324</v>
       </c>
-      <c r="V4" s="275" t="s">
+      <c r="V4" s="269" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="273" t="s">
+      <c r="W4" s="271" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="273" t="s">
+      <c r="X4" s="271" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="273" t="s">
+      <c r="Y4" s="271" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="273" t="s">
+      <c r="Z4" s="271" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" s="273" t="s">
+      <c r="AA4" s="271" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="273" t="s">
+      <c r="AB4" s="271" t="s">
         <v>165</v>
       </c>
-      <c r="AC4" s="273" t="s">
+      <c r="AC4" s="271" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" s="273" t="s">
+      <c r="AD4" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="AE4" s="273" t="s">
+      <c r="AE4" s="271" t="s">
         <v>97</v>
       </c>
-      <c r="AF4" s="273" t="s">
+      <c r="AF4" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="AI4" s="275" t="s">
+      <c r="AI4" s="269" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="275" t="s">
+      <c r="AJ4" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" s="273" t="s">
+      <c r="AK4" s="271" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="273" t="s">
+      <c r="AL4" s="271" t="s">
         <v>165</v>
       </c>
-      <c r="AM4" s="273" t="s">
+      <c r="AM4" s="271" t="s">
         <v>89</v>
       </c>
-      <c r="AN4" s="273" t="s">
+      <c r="AN4" s="271" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="273" t="s">
+      <c r="AO4" s="271" t="s">
         <v>165</v>
       </c>
-      <c r="AP4" s="273" t="s">
+      <c r="AP4" s="271" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="273" t="s">
+      <c r="AQ4" s="271" t="s">
         <v>93</v>
       </c>
       <c r="AR4" s="163"/>
@@ -19232,26 +19239,26 @@
       <c r="T5" s="27">
         <v>0</v>
       </c>
-      <c r="V5" s="276"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="274"/>
-      <c r="Y5" s="274"/>
-      <c r="Z5" s="274"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="274"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="274"/>
-      <c r="AF5" s="274"/>
-      <c r="AI5" s="276"/>
-      <c r="AJ5" s="276"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="274"/>
-      <c r="AM5" s="274"/>
-      <c r="AN5" s="274"/>
-      <c r="AO5" s="274"/>
-      <c r="AP5" s="274"/>
-      <c r="AQ5" s="274"/>
+      <c r="V5" s="270"/>
+      <c r="W5" s="272"/>
+      <c r="X5" s="272"/>
+      <c r="Y5" s="272"/>
+      <c r="Z5" s="272"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="272"/>
+      <c r="AC5" s="272"/>
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="272"/>
+      <c r="AF5" s="272"/>
+      <c r="AI5" s="270"/>
+      <c r="AJ5" s="270"/>
+      <c r="AK5" s="272"/>
+      <c r="AL5" s="272"/>
+      <c r="AM5" s="272"/>
+      <c r="AN5" s="272"/>
+      <c r="AO5" s="272"/>
+      <c r="AP5" s="272"/>
+      <c r="AQ5" s="272"/>
       <c r="AR5" s="163"/>
       <c r="AT5" s="14" t="s">
         <v>13</v>
@@ -24765,6 +24772,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AI1:AQ1"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AE3:AF3"/>
@@ -24778,17 +24796,6 @@
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="J41:J73">
     <cfRule type="cellIs" dxfId="52" priority="1" operator="lessThan">
@@ -24805,6 +24812,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AA3646-4772-4613-9F91-AD3658A0829E}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="B3:AM73"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
@@ -24858,26 +24866,26 @@
         <v>12</v>
       </c>
       <c r="N3"/>
-      <c r="AD3" s="280" t="s">
+      <c r="AD3" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="280" t="s">
+      <c r="AE3" s="279"/>
+      <c r="AF3" s="279" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="280"/>
-      <c r="AH3" s="281" t="s">
+      <c r="AG3" s="279"/>
+      <c r="AH3" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="282"/>
-      <c r="AJ3" s="280" t="s">
+      <c r="AI3" s="281"/>
+      <c r="AJ3" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="280"/>
-      <c r="AL3" s="280" t="s">
+      <c r="AK3" s="279"/>
+      <c r="AL3" s="279" t="s">
         <v>182</v>
       </c>
-      <c r="AM3" s="280" t="s">
+      <c r="AM3" s="279" t="s">
         <v>6</v>
       </c>
     </row>
@@ -24929,28 +24937,28 @@
       <c r="AC4" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="269">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="279">
+      <c r="AD4" s="273">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="282">
         <v>0.75571428571428578</v>
       </c>
-      <c r="AF4" s="269">
+      <c r="AF4" s="273">
         <v>3</v>
       </c>
-      <c r="AG4" s="279">
+      <c r="AG4" s="282">
         <v>1.053409090909091</v>
       </c>
-      <c r="AH4" s="269">
+      <c r="AH4" s="273">
         <v>3</v>
       </c>
-      <c r="AI4" s="279">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="269">
+      <c r="AI4" s="282">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="273">
         <v>3</v>
       </c>
-      <c r="AK4" s="279">
+      <c r="AK4" s="282">
         <v>0.90102442810934147</v>
       </c>
       <c r="AL4" s="23">
@@ -25005,14 +25013,14 @@
         <f>VLOOKUP(B5,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.83472022955523673</v>
       </c>
-      <c r="AD5" s="269"/>
-      <c r="AE5" s="279"/>
-      <c r="AF5" s="269"/>
-      <c r="AG5" s="279"/>
-      <c r="AH5" s="269"/>
-      <c r="AI5" s="279"/>
-      <c r="AJ5" s="269"/>
-      <c r="AK5" s="279"/>
+      <c r="AD5" s="273"/>
+      <c r="AE5" s="282"/>
+      <c r="AF5" s="273"/>
+      <c r="AG5" s="282"/>
+      <c r="AH5" s="273"/>
+      <c r="AI5" s="282"/>
+      <c r="AJ5" s="273"/>
+      <c r="AK5" s="282"/>
       <c r="AL5" s="23">
         <v>1</v>
       </c>
@@ -25215,18 +25223,18 @@
       <c r="S9" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AD9" s="280" t="s">
+      <c r="AD9" s="279" t="s">
         <v>43</v>
       </c>
-      <c r="AE9" s="280"/>
-      <c r="AF9" s="280" t="s">
+      <c r="AE9" s="279"/>
+      <c r="AF9" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="AG9" s="280"/>
-      <c r="AH9" s="280" t="s">
+      <c r="AG9" s="279"/>
+      <c r="AH9" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="280"/>
+      <c r="AI9" s="279"/>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -25282,10 +25290,10 @@
       <c r="AE10" s="27">
         <v>0.75</v>
       </c>
-      <c r="AF10" s="279" t="s">
+      <c r="AF10" s="282" t="s">
         <v>188</v>
       </c>
-      <c r="AG10" s="279"/>
+      <c r="AG10" s="282"/>
       <c r="AH10" s="23">
         <v>3</v>
       </c>
@@ -25384,18 +25392,18 @@
         <f>VLOOKUP(B12,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.92380952380952386</v>
       </c>
-      <c r="AD12" s="280" t="s">
+      <c r="AD12" s="279" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="280"/>
-      <c r="AF12" s="280" t="s">
+      <c r="AE12" s="279"/>
+      <c r="AF12" s="279" t="s">
         <v>11</v>
       </c>
-      <c r="AG12" s="280"/>
-      <c r="AH12" s="280" t="s">
+      <c r="AG12" s="279"/>
+      <c r="AH12" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="AI12" s="280"/>
+      <c r="AI12" s="279"/>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -27479,11 +27487,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AH9:AI9"/>
@@ -27494,11 +27502,11 @@
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:M18">
     <cfRule type="cellIs" dxfId="51" priority="11" operator="lessThan">
@@ -27606,6 +27614,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F262E5-2EC0-4591-B1DD-6159405C386D}">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="B2:AL78"/>
   <sheetViews>
     <sheetView topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
@@ -27707,37 +27716,37 @@
         <f>G3/F3</f>
         <v>1.0391304347826087</v>
       </c>
-      <c r="J3" s="275" t="s">
+      <c r="J3" s="269" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="275" t="s">
+      <c r="K3" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="275" t="s">
+      <c r="L3" s="269" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="275" t="s">
+      <c r="M3" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="273" t="s">
+      <c r="N3" s="271" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="273" t="s">
+      <c r="O3" s="271" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="275" t="s">
+      <c r="P3" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="273" t="s">
+      <c r="Q3" s="271" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="273" t="s">
+      <c r="S3" s="271" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="273" t="s">
+      <c r="T3" s="271" t="s">
         <v>93</v>
       </c>
       <c r="W3">
@@ -27795,17 +27804,17 @@
         <f t="shared" ref="H4:H16" si="1">G4/F4</f>
         <v>1.0152173913043478</v>
       </c>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="276"/>
-      <c r="N4" s="274"/>
-      <c r="O4" s="274"/>
-      <c r="P4" s="276"/>
-      <c r="Q4" s="274"/>
-      <c r="R4" s="274"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
+      <c r="J4" s="270"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="270"/>
+      <c r="M4" s="270"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="270"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
       <c r="W4" s="192" t="s">
         <v>34</v>
       </c>
@@ -30603,17 +30612,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
     <cfRule type="cellIs" dxfId="49" priority="24" operator="lessThan">
@@ -30726,9 +30735,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EFE4F-9744-4E3D-8FD2-FF7FCF262130}">
+  <sheetPr codeName="Hoja8"/>
   <dimension ref="C3:AI60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
@@ -32248,23 +32258,23 @@
       </c>
     </row>
     <row r="23" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="E23" s="293" t="s">
+      <c r="E23" s="283" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="294"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="295"/>
-      <c r="J23" s="284" t="s">
+      <c r="F23" s="284"/>
+      <c r="G23" s="284"/>
+      <c r="H23" s="284"/>
+      <c r="I23" s="285"/>
+      <c r="J23" s="286" t="s">
         <v>203</v>
       </c>
-      <c r="K23" s="285"/>
-      <c r="L23" s="286"/>
-      <c r="M23" s="287" t="s">
+      <c r="K23" s="287"/>
+      <c r="L23" s="288"/>
+      <c r="M23" s="289" t="s">
         <v>204</v>
       </c>
-      <c r="N23" s="288"/>
-      <c r="O23" s="289"/>
+      <c r="N23" s="290"/>
+      <c r="O23" s="291"/>
     </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.25">
       <c r="E24" s="214">
@@ -33026,23 +33036,23 @@
     </row>
     <row r="46" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E47" s="293" t="s">
+      <c r="E47" s="283" t="s">
         <v>225</v>
       </c>
-      <c r="F47" s="294"/>
-      <c r="G47" s="294"/>
-      <c r="H47" s="294"/>
-      <c r="I47" s="295"/>
-      <c r="J47" s="284" t="s">
+      <c r="F47" s="284"/>
+      <c r="G47" s="284"/>
+      <c r="H47" s="284"/>
+      <c r="I47" s="285"/>
+      <c r="J47" s="286" t="s">
         <v>203</v>
       </c>
-      <c r="K47" s="285"/>
-      <c r="L47" s="286"/>
-      <c r="M47" s="287" t="s">
+      <c r="K47" s="287"/>
+      <c r="L47" s="288"/>
+      <c r="M47" s="289" t="s">
         <v>226</v>
       </c>
-      <c r="N47" s="288"/>
-      <c r="O47" s="289"/>
+      <c r="N47" s="290"/>
+      <c r="O47" s="291"/>
       <c r="P47" s="235" t="s">
         <v>173</v>
       </c>
@@ -33197,24 +33207,24 @@
       <c r="J55" s="252"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E56" s="291" t="s">
+      <c r="E56" s="294" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="292"/>
-      <c r="G56" s="292"/>
-      <c r="H56" s="292"/>
-      <c r="I56" s="292"/>
-      <c r="J56" s="292"/>
-      <c r="K56" s="284" t="s">
+      <c r="F56" s="295"/>
+      <c r="G56" s="295"/>
+      <c r="H56" s="295"/>
+      <c r="I56" s="295"/>
+      <c r="J56" s="295"/>
+      <c r="K56" s="286" t="s">
         <v>203</v>
       </c>
-      <c r="L56" s="285"/>
-      <c r="M56" s="286"/>
-      <c r="N56" s="287" t="s">
+      <c r="L56" s="287"/>
+      <c r="M56" s="288"/>
+      <c r="N56" s="289" t="s">
         <v>226</v>
       </c>
-      <c r="O56" s="288"/>
-      <c r="P56" s="289"/>
+      <c r="O56" s="290"/>
+      <c r="P56" s="291"/>
       <c r="Q56" s="235" t="s">
         <v>173</v>
       </c>
@@ -33232,10 +33242,10 @@
       <c r="H57" s="215">
         <v>0.04</v>
       </c>
-      <c r="I57" s="290">
+      <c r="I57" s="293">
         <v>0.04</v>
       </c>
-      <c r="J57" s="290"/>
+      <c r="J57" s="293"/>
       <c r="K57" s="217">
         <v>0.05</v>
       </c>
@@ -33279,10 +33289,10 @@
       <c r="H59" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="283" t="s">
+      <c r="I59" s="292" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="283"/>
+      <c r="J59" s="292"/>
       <c r="K59" s="204" t="s">
         <v>7</v>
       </c>
@@ -33357,17 +33367,17 @@
     <sortCondition ref="AC5:AC21"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="E56:J56"/>
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="J47:L47"/>
     <mergeCell ref="M47:O47"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="E56:J56"/>
   </mergeCells>
   <conditionalFormatting sqref="E27:E29 E31:E32">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
@@ -33506,6 +33516,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED67B45-1FB5-490B-AAEF-9793F4181BA2}">
+  <sheetPr codeName="Hoja9"/>
   <dimension ref="B3:O72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -36100,6 +36111,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B9CBAF11028447B385221D9B36D96A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09be7b49b3ef9a75f18b705818ef77e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="22ff7873-98f4-4119-bbca-70544c3aaded" xmlns:ns3="242fb338-6e7f-46c2-a04d-1835f0b57452" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2802d257e544272840eb93994043e80d" ns2:_="" ns3:_="">
     <xsd:import namespace="22ff7873-98f4-4119-bbca-70544c3aaded"/>
@@ -36334,15 +36354,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -36355,6 +36366,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834DA8F5-60A1-4558-9A54-21F8114614ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA69235-E416-4829-BB38-0C60BB2D4E8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36369,14 +36388,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{834DA8F5-60A1-4558-9A54-21F8114614ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Annual_V2.xlsx
+++ b/Annual_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3788c24686780f/Escritorio/Nissan/Dashboard_NIBU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{0D9B1BE0-0977-4091-8500-2A46E4BE3E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E58864F4-90B5-40C0-A99F-74AA41CC0F48}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{0D9B1BE0-0977-4091-8500-2A46E4BE3E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99CE832C-565D-43AD-BA19-546881FA837E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6105" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="12" xr2:uid="{53836420-D36C-410F-ABBE-B356CDD75E29}"/>
   </bookViews>
@@ -31,6 +31,9 @@
     <sheet name="Sheet2" sheetId="12" state="hidden" r:id="rId16"/>
     <sheet name="Grupo Q" sheetId="6" state="hidden" r:id="rId17"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">DEC!$S$4:$Y$4</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="276">
   <si>
     <t>Porcentaje de Cumplimiento por KPI</t>
   </si>
@@ -1282,7 +1285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1865,6 +1868,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1872,7 +1888,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2592,6 +2608,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2632,9 +2651,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2694,6 +2710,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -14967,16 +14985,16 @@
       <c r="D43" s="258" t="s">
         <v>225</v>
       </c>
-      <c r="G43" s="289" t="s">
+      <c r="G43" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="291" t="s">
+      <c r="H43" s="292" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="289" t="s">
+      <c r="I43" s="290" t="s">
         <v>226</v>
       </c>
-      <c r="J43" s="289" t="s">
+      <c r="J43" s="290" t="s">
         <v>227</v>
       </c>
       <c r="L43" s="262" t="s">
@@ -14991,28 +15009,28 @@
       <c r="O43" s="265" t="s">
         <v>230</v>
       </c>
-      <c r="Q43" s="289" t="s">
+      <c r="Q43" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="R43" s="291" t="s">
+      <c r="R43" s="292" t="s">
         <v>231</v>
       </c>
-      <c r="S43" s="291" t="s">
+      <c r="S43" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="T43" s="291" t="s">
+      <c r="T43" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="U43" s="291" t="s">
+      <c r="U43" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="V43" s="291" t="s">
+      <c r="V43" s="292" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="291" t="s">
+      <c r="W43" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="X43" s="291" t="s">
+      <c r="X43" s="292" t="s">
         <v>93</v>
       </c>
       <c r="AA43" s="196" t="s">
@@ -15033,10 +15051,10 @@
         <f>C44/$C$76</f>
         <v>1.9942565411614551E-5</v>
       </c>
-      <c r="G44" s="290"/>
-      <c r="H44" s="292"/>
-      <c r="I44" s="290"/>
-      <c r="J44" s="290"/>
+      <c r="G44" s="291"/>
+      <c r="H44" s="293"/>
+      <c r="I44" s="291"/>
+      <c r="J44" s="291"/>
       <c r="L44" s="263" t="s">
         <v>95</v>
       </c>
@@ -15050,14 +15068,14 @@
         <f>N44/M44</f>
         <v>0.5</v>
       </c>
-      <c r="Q44" s="290"/>
-      <c r="R44" s="292"/>
-      <c r="S44" s="292"/>
-      <c r="T44" s="292"/>
-      <c r="U44" s="292"/>
-      <c r="V44" s="292"/>
-      <c r="W44" s="292"/>
-      <c r="X44" s="292"/>
+      <c r="Q44" s="291"/>
+      <c r="R44" s="293"/>
+      <c r="S44" s="293"/>
+      <c r="T44" s="293"/>
+      <c r="U44" s="293"/>
+      <c r="V44" s="293"/>
+      <c r="W44" s="293"/>
+      <c r="X44" s="293"/>
       <c r="AA44" s="139" t="s">
         <v>13</v>
       </c>
@@ -20011,10 +20029,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0153C-AB90-43BD-B08A-E56729502946}">
-  <dimension ref="B2:U60"/>
+  <dimension ref="B2:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20031,7 +20049,7 @@
     <col min="21" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
@@ -20042,7 +20060,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -20079,8 +20097,29 @@
       <c r="O4" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="184" t="s">
         <v>34</v>
       </c>
@@ -20117,8 +20156,32 @@
       <c r="O5" s="11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="323" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0.87</v>
+      </c>
+      <c r="W5" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="X5" s="138">
+        <v>1.0576470588235294</v>
+      </c>
+      <c r="Y5" s="138">
+        <v>1.0804597701149425</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="184" t="s">
         <v>26</v>
       </c>
@@ -20159,8 +20222,32 @@
       <c r="O6" s="199">
         <v>1.5066172578083645</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="324" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="U6" s="21">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="V6" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="W6" s="21">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="X6" s="138">
+        <v>1.0089743589743589</v>
+      </c>
+      <c r="Y6" s="138">
+        <v>1.0413043478260868</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="184" t="s">
         <v>18</v>
       </c>
@@ -20201,8 +20288,32 @@
       <c r="O7" s="199">
         <v>1.4352075337316501</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="323" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="U7" s="21">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="V7" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="W7" s="21">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="X7" s="138">
+        <v>1.0315217391304348</v>
+      </c>
+      <c r="Y7" s="138">
+        <v>1.0195652173913043</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="184" t="s">
         <v>25</v>
       </c>
@@ -20243,8 +20354,32 @@
       <c r="O8" s="199">
         <v>1.0308548564979865</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="324" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="U8" s="21">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="V8" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="W8" s="21">
+        <v>0.96</v>
+      </c>
+      <c r="X8" s="138">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y8" s="138">
+        <v>1.0909090909090908</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="184" t="s">
         <v>16</v>
       </c>
@@ -20285,8 +20420,32 @@
       <c r="O9" s="199">
         <v>1.0410119820885564</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="323" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="U9" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="V9" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="W9" s="21">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="X9" s="138">
+        <v>1.0294117647058825</v>
+      </c>
+      <c r="Y9" s="138">
+        <v>1.0138297872340425</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="184" t="s">
         <v>13</v>
       </c>
@@ -20327,8 +20486,32 @@
       <c r="O10" s="199">
         <v>1.1168578216891083</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="324" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="U10" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="V10" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="W10" s="21">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="X10" s="138">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y10" s="138">
+        <v>1.1253012048192772</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="184" t="s">
         <v>15</v>
       </c>
@@ -20369,8 +20552,32 @@
       <c r="O11" s="199">
         <v>1.2731400628711138</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="323" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="21">
+        <v>0</v>
+      </c>
+      <c r="U11" s="21">
+        <v>0</v>
+      </c>
+      <c r="V11" s="21">
+        <v>0</v>
+      </c>
+      <c r="W11" s="21">
+        <v>0</v>
+      </c>
+      <c r="X11" s="138">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="184" t="s">
         <v>22</v>
       </c>
@@ -20411,8 +20618,32 @@
       <c r="O12" s="199">
         <v>0.93592129752725317</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="324" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="U12" s="21">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="V12" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="W12" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="X12" s="138">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="Y12" s="138">
+        <v>1.0602409638554218</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="184" t="s">
         <v>17</v>
       </c>
@@ -20453,8 +20684,32 @@
       <c r="O13" s="199">
         <v>1.0457799956606635</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="323" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="U13" s="21">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="V13" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="W13" s="21">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="X13" s="138">
+        <v>0.96285714285714297</v>
+      </c>
+      <c r="Y13" s="138">
+        <v>1.1951807228915663</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="184" t="s">
         <v>23</v>
       </c>
@@ -20495,8 +20750,32 @@
       <c r="O14" s="199">
         <v>0.84428809479725997</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="324" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="U14" s="21">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="V14" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="W14" s="21">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="X14" s="138">
+        <v>0.8014285714285716</v>
+      </c>
+      <c r="Y14" s="138">
+        <v>1.053409090909091</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="184" t="s">
         <v>14</v>
       </c>
@@ -20537,8 +20816,32 @@
       <c r="O15" s="199">
         <v>0.98093118645547017</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="323" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="U15" s="21">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="V15" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="W15" s="21">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="X15" s="138">
+        <v>0.87428571428571433</v>
+      </c>
+      <c r="Y15" s="138">
+        <v>1.0915662650602411</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="184" t="s">
         <v>19</v>
       </c>
@@ -20579,8 +20882,32 @@
       <c r="O16" s="199">
         <v>1.0132714336176007</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R16" s="324" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="V16" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="W16" s="21">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="X16" s="138">
+        <v>1.0341463414634147</v>
+      </c>
+      <c r="Y16" s="138">
+        <v>1.0153846153846153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="184" t="s">
         <v>21</v>
       </c>
@@ -20621,8 +20948,32 @@
       <c r="O17" s="199">
         <v>1.0955537922031378</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R17" s="323" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="U17" s="21">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="V17" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="W17" s="21">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="X17" s="138">
+        <v>1.0267441860465116</v>
+      </c>
+      <c r="Y17" s="138">
+        <v>1.0799999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="184" t="s">
         <v>20</v>
       </c>
@@ -20663,8 +21014,32 @@
       <c r="O18" s="199">
         <v>0.94506792675723528</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R18" s="324" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="21">
+        <v>0.84</v>
+      </c>
+      <c r="U18" s="21">
+        <v>0.873</v>
+      </c>
+      <c r="V18" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="W18" s="21">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="X18" s="138">
+        <v>1.0392857142857144</v>
+      </c>
+      <c r="Y18" s="138">
+        <v>1.0422222222222222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="184" t="s">
         <v>78</v>
       </c>
@@ -20705,8 +21080,32 @@
       <c r="O19" s="199">
         <v>0.78305519897304232</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R19" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="U19" s="21">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="V19" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="W19" s="21">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="X19" s="138">
+        <v>1.0521276595744682</v>
+      </c>
+      <c r="Y19" s="138">
+        <v>1.0431578947368421</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="184" t="s">
         <v>27</v>
       </c>
@@ -20746,7 +21145,7 @@
         <v>0.70902449248457966</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F21" s="23" t="s">
         <v>219</v>
       </c>
@@ -20779,12 +21178,28 @@
         <v>0.59155488249560984</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S22" s="289"/>
+      <c r="T22" s="304" t="s">
+        <v>274</v>
+      </c>
+      <c r="U22" s="304"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S23" s="292" t="s">
+        <v>93</v>
+      </c>
+      <c r="T23" s="292" t="s">
+        <v>97</v>
+      </c>
+      <c r="U23" s="292" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>1</v>
       </c>
@@ -20824,16 +21239,14 @@
       <c r="O24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="303" t="s">
+      <c r="R24" s="289" t="s">
         <v>163</v>
       </c>
-      <c r="S24" s="303"/>
-      <c r="T24" s="304" t="s">
-        <v>274</v>
-      </c>
-      <c r="U24" s="304"/>
-    </row>
-    <row r="25" spans="2:21" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="293"/>
+      <c r="T24" s="293"/>
+      <c r="U24" s="293"/>
+    </row>
+    <row r="25" spans="2:25" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="268" t="s">
         <v>155</v>
       </c>
@@ -20846,25 +21259,25 @@
       <c r="E25" s="269" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="289" t="s">
+      <c r="G25" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="291" t="s">
+      <c r="H25" s="292" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="291" t="s">
+      <c r="I25" s="292" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="289" t="s">
+      <c r="J25" s="290" t="s">
         <v>186</v>
       </c>
-      <c r="K25" s="289" t="s">
+      <c r="K25" s="290" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="291" t="s">
+      <c r="L25" s="292" t="s">
         <v>246</v>
       </c>
-      <c r="M25" s="289" t="s">
+      <c r="M25" s="290" t="s">
         <v>57</v>
       </c>
       <c r="O25" s="11">
@@ -20873,20 +21286,20 @@
       <c r="P25" s="11">
         <v>2</v>
       </c>
-      <c r="R25" s="291" t="s">
+      <c r="R25" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="S25" s="291" t="s">
-        <v>93</v>
-      </c>
-      <c r="T25" s="291" t="s">
-        <v>97</v>
-      </c>
-      <c r="U25" s="291" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S25" s="4">
+        <v>108605</v>
+      </c>
+      <c r="T25" s="4">
+        <v>109311</v>
+      </c>
+      <c r="U25" s="4">
+        <v>108605</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="186" t="s">
         <v>95</v>
       </c>
@@ -20904,25 +21317,31 @@
         <f>C26/$C$60</f>
         <v>5.4316830069797124E-5</v>
       </c>
-      <c r="G26" s="290"/>
-      <c r="H26" s="292"/>
-      <c r="I26" s="292"/>
-      <c r="J26" s="290"/>
-      <c r="K26" s="290"/>
-      <c r="L26" s="292"/>
-      <c r="M26" s="290"/>
+      <c r="G26" s="291"/>
+      <c r="H26" s="293"/>
+      <c r="I26" s="293"/>
+      <c r="J26" s="291"/>
+      <c r="K26" s="291"/>
+      <c r="L26" s="293"/>
+      <c r="M26" s="291"/>
       <c r="O26" s="196" t="s">
         <v>1</v>
       </c>
       <c r="P26" s="196" t="s">
         <v>190</v>
       </c>
-      <c r="R26" s="292"/>
-      <c r="S26" s="292"/>
-      <c r="T26" s="292"/>
-      <c r="U26" s="292"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R26" s="293"/>
+      <c r="S26" s="4">
+        <v>14602</v>
+      </c>
+      <c r="T26" s="4">
+        <v>12580</v>
+      </c>
+      <c r="U26" s="4">
+        <v>14602</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="186" t="s">
         <v>81</v>
       </c>
@@ -20973,16 +21392,16 @@
         <v>115048</v>
       </c>
       <c r="S27" s="4">
-        <v>108605</v>
+        <v>20863</v>
       </c>
       <c r="T27" s="4">
-        <v>109311</v>
+        <v>21593</v>
       </c>
       <c r="U27" s="4">
-        <v>108605</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+        <v>20863</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="186" t="s">
         <v>66</v>
       </c>
@@ -21033,16 +21452,16 @@
         <v>11848</v>
       </c>
       <c r="S28" s="4">
-        <v>14602</v>
+        <v>10844</v>
       </c>
       <c r="T28" s="4">
-        <v>12580</v>
+        <v>13779</v>
       </c>
       <c r="U28" s="4">
-        <v>14602</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+        <v>10844</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="186" t="s">
         <v>68</v>
       </c>
@@ -21093,16 +21512,16 @@
         <v>21687</v>
       </c>
       <c r="S29" s="4">
-        <v>20863</v>
+        <v>17424</v>
       </c>
       <c r="T29" s="4">
-        <v>21593</v>
+        <v>14798</v>
       </c>
       <c r="U29" s="4">
-        <v>20863</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+        <v>17424</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="186" t="s">
         <v>69</v>
       </c>
@@ -21152,17 +21571,17 @@
       <c r="R30" s="4">
         <v>17074</v>
       </c>
-      <c r="S30" s="4">
-        <v>10844</v>
-      </c>
-      <c r="T30" s="4">
-        <v>13779</v>
-      </c>
-      <c r="U30" s="4">
-        <v>10844</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S30" s="5">
+        <v>770</v>
+      </c>
+      <c r="T30" s="5">
+        <v>788</v>
+      </c>
+      <c r="U30" s="5">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="186" t="s">
         <v>70</v>
       </c>
@@ -21213,16 +21632,16 @@
         <v>14758</v>
       </c>
       <c r="S31" s="4">
-        <v>17424</v>
+        <v>1089</v>
       </c>
       <c r="T31" s="4">
-        <v>14798</v>
+        <v>2154</v>
       </c>
       <c r="U31" s="4">
-        <v>17424</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="186" t="s">
         <v>82</v>
       </c>
@@ -21269,13 +21688,13 @@
         <v>677</v>
       </c>
       <c r="S32" s="5">
-        <v>770</v>
+        <v>107</v>
       </c>
       <c r="T32" s="5">
-        <v>788</v>
+        <v>127</v>
       </c>
       <c r="U32" s="5">
-        <v>770</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
@@ -21326,14 +21745,14 @@
       <c r="R33" s="4">
         <v>1377</v>
       </c>
-      <c r="S33" s="4">
-        <v>1089</v>
-      </c>
-      <c r="T33" s="4">
-        <v>2154</v>
-      </c>
-      <c r="U33" s="4">
-        <v>1089</v>
+      <c r="S33" s="5">
+        <v>762</v>
+      </c>
+      <c r="T33" s="5">
+        <v>780</v>
+      </c>
+      <c r="U33" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
@@ -21381,13 +21800,13 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5">
-        <v>107</v>
+        <v>329</v>
       </c>
       <c r="T34" s="5">
-        <v>127</v>
+        <v>339</v>
       </c>
       <c r="U34" s="5">
-        <v>107</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
@@ -21437,13 +21856,13 @@
         <v>134</v>
       </c>
       <c r="S35" s="5">
-        <v>762</v>
+        <v>343</v>
       </c>
       <c r="T35" s="5">
-        <v>780</v>
+        <v>351</v>
       </c>
       <c r="U35" s="5">
-        <v>762</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
@@ -21491,13 +21910,13 @@
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5">
-        <v>329</v>
+        <v>660</v>
       </c>
       <c r="T36" s="5">
-        <v>339</v>
+        <v>679</v>
       </c>
       <c r="U36" s="5">
-        <v>329</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
@@ -21546,14 +21965,14 @@
       <c r="R37" s="5">
         <v>549</v>
       </c>
-      <c r="S37" s="5">
-        <v>343</v>
-      </c>
-      <c r="T37" s="5">
-        <v>351</v>
-      </c>
-      <c r="U37" s="5">
-        <v>343</v>
+      <c r="S37" s="4">
+        <v>2011</v>
+      </c>
+      <c r="T37" s="4">
+        <v>3970</v>
+      </c>
+      <c r="U37" s="4">
+        <v>2011</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
@@ -21603,13 +22022,13 @@
         <v>83</v>
       </c>
       <c r="S38" s="5">
-        <v>660</v>
+        <v>530</v>
       </c>
       <c r="T38" s="5">
-        <v>679</v>
+        <v>541</v>
       </c>
       <c r="U38" s="5">
-        <v>660</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
@@ -21662,14 +22081,12 @@
       <c r="R39" s="4">
         <v>3722</v>
       </c>
-      <c r="S39" s="4">
-        <v>2011</v>
-      </c>
-      <c r="T39" s="4">
-        <v>3970</v>
-      </c>
-      <c r="U39" s="4">
-        <v>2011</v>
+      <c r="S39" s="5">
+        <v>276</v>
+      </c>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5">
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
@@ -21717,13 +22134,13 @@
       </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5">
-        <v>530</v>
+        <v>422</v>
       </c>
       <c r="T40" s="5">
-        <v>541</v>
+        <v>834</v>
       </c>
       <c r="U40" s="5">
-        <v>530</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
@@ -21771,11 +22188,13 @@
         <v>132</v>
       </c>
       <c r="S41" s="5">
-        <v>276</v>
-      </c>
-      <c r="T41" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="T41" s="5">
+        <v>323</v>
+      </c>
       <c r="U41" s="5">
-        <v>276</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
@@ -21826,14 +22245,14 @@
       <c r="R42" s="5">
         <v>980</v>
       </c>
-      <c r="S42" s="5">
-        <v>422</v>
-      </c>
-      <c r="T42" s="5">
-        <v>834</v>
-      </c>
-      <c r="U42" s="5">
-        <v>422</v>
+      <c r="S42" s="4">
+        <v>9431</v>
+      </c>
+      <c r="T42" s="4">
+        <v>9680</v>
+      </c>
+      <c r="U42" s="4">
+        <v>9431</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
@@ -21880,14 +22299,14 @@
         <v>0.96546546546546541</v>
       </c>
       <c r="R43" s="5"/>
-      <c r="S43" s="5">
-        <v>165</v>
-      </c>
-      <c r="T43" s="5">
-        <v>323</v>
-      </c>
-      <c r="U43" s="5">
-        <v>165</v>
+      <c r="S43" s="4">
+        <v>30081</v>
+      </c>
+      <c r="T43" s="4">
+        <v>23105</v>
+      </c>
+      <c r="U43" s="4">
+        <v>30081</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
@@ -21941,13 +22360,13 @@
         <v>5519</v>
       </c>
       <c r="S44" s="4">
-        <v>9431</v>
+        <v>11820</v>
       </c>
       <c r="T44" s="4">
-        <v>9680</v>
+        <v>16454</v>
       </c>
       <c r="U44" s="4">
-        <v>9431</v>
+        <v>11820</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
@@ -22001,13 +22420,13 @@
         <v>23230</v>
       </c>
       <c r="S45" s="4">
-        <v>30081</v>
+        <v>12131</v>
       </c>
       <c r="T45" s="4">
-        <v>23105</v>
+        <v>12322</v>
       </c>
       <c r="U45" s="4">
-        <v>30081</v>
+        <v>12131</v>
       </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
@@ -22055,13 +22474,13 @@
         <v>16244</v>
       </c>
       <c r="S46" s="4">
-        <v>11820</v>
+        <v>13352</v>
       </c>
       <c r="T46" s="4">
-        <v>16454</v>
+        <v>15665</v>
       </c>
       <c r="U46" s="4">
-        <v>11820</v>
+        <v>13352</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
@@ -22109,13 +22528,13 @@
         <v>11670</v>
       </c>
       <c r="S47" s="4">
-        <v>12131</v>
+        <v>5429</v>
       </c>
       <c r="T47" s="4">
-        <v>12322</v>
+        <v>4956</v>
       </c>
       <c r="U47" s="4">
-        <v>12131</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
@@ -22163,13 +22582,11 @@
         <v>15950</v>
       </c>
       <c r="S48" s="4">
-        <v>13352</v>
-      </c>
-      <c r="T48" s="4">
-        <v>15665</v>
-      </c>
+        <v>1428</v>
+      </c>
+      <c r="T48" s="5"/>
       <c r="U48" s="4">
-        <v>13352</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
@@ -22216,14 +22633,12 @@
       <c r="R49" s="4">
         <v>5820</v>
       </c>
-      <c r="S49" s="4">
-        <v>5429</v>
-      </c>
-      <c r="T49" s="4">
-        <v>4956</v>
-      </c>
-      <c r="U49" s="4">
-        <v>5429</v>
+      <c r="S49" s="5">
+        <v>342</v>
+      </c>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5">
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
@@ -22267,11 +22682,11 @@
       </c>
       <c r="R50" s="5"/>
       <c r="S50" s="4">
-        <v>1428</v>
+        <v>1681</v>
       </c>
       <c r="T50" s="5"/>
       <c r="U50" s="4">
-        <v>1428</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
@@ -22314,12 +22729,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="R51" s="5"/>
-      <c r="S51" s="5">
-        <v>342</v>
-      </c>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5">
-        <v>342</v>
+      <c r="S51" s="4">
+        <v>13860</v>
+      </c>
+      <c r="T51" s="4">
+        <v>20436</v>
+      </c>
+      <c r="U51" s="4">
+        <v>13860</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
@@ -22363,11 +22780,13 @@
       </c>
       <c r="R52" s="5"/>
       <c r="S52" s="4">
-        <v>1681</v>
-      </c>
-      <c r="T52" s="5"/>
+        <v>2318</v>
+      </c>
+      <c r="T52" s="4">
+        <v>1177</v>
+      </c>
       <c r="U52" s="4">
-        <v>1681</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
@@ -22415,13 +22834,13 @@
         <v>19325</v>
       </c>
       <c r="S53" s="4">
-        <v>13860</v>
+        <v>62233</v>
       </c>
       <c r="T53" s="4">
-        <v>20436</v>
+        <v>53249</v>
       </c>
       <c r="U53" s="4">
-        <v>13860</v>
+        <v>62233</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
@@ -22467,13 +22886,13 @@
       </c>
       <c r="R54" s="5"/>
       <c r="S54" s="4">
-        <v>2318</v>
+        <v>31566</v>
       </c>
       <c r="T54" s="4">
-        <v>1177</v>
+        <v>41532</v>
       </c>
       <c r="U54" s="4">
-        <v>2318</v>
+        <v>31566</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
@@ -22521,13 +22940,16 @@
         <v>53318</v>
       </c>
       <c r="S55" s="4">
-        <v>62233</v>
+        <f>S31+S37+S40+S41</f>
+        <v>3687</v>
       </c>
       <c r="T55" s="4">
-        <v>53249</v>
+        <f>T31+T37+T40+T41</f>
+        <v>7281</v>
       </c>
       <c r="U55" s="4">
-        <v>62233</v>
+        <f>U31+U37+U40+U41</f>
+        <v>3687</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
@@ -22575,13 +22997,16 @@
         <v>42489</v>
       </c>
       <c r="S56" s="4">
-        <v>31566</v>
+        <f>S30+S32+S33+S34+S35+S36+S38+S39+S42</f>
+        <v>13208</v>
       </c>
       <c r="T56" s="4">
-        <v>41532</v>
+        <f>T30+T32+T33+T34+T35+T36+T38+T39+T42</f>
+        <v>13285</v>
       </c>
       <c r="U56" s="4">
-        <v>31566</v>
+        <f>U30+U32+U33+U34+U35+U36+U38+U39+U42</f>
+        <v>13208</v>
       </c>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
@@ -22610,7 +23035,7 @@
         <v>70000</v>
       </c>
       <c r="I57" s="191">
-        <f>T57/U57</f>
+        <f>T55/U55</f>
         <v>1.9747762408462164</v>
       </c>
       <c r="J57" s="4">
@@ -22631,18 +23056,6 @@
         <f>R33+R39+R42+R43</f>
         <v>6079</v>
       </c>
-      <c r="S57" s="4">
-        <f>S33+S39+S42+S43</f>
-        <v>3687</v>
-      </c>
-      <c r="T57" s="4">
-        <f>T33+T39+T42+T43</f>
-        <v>7281</v>
-      </c>
-      <c r="U57" s="4">
-        <f>U33+U39+U42+U43</f>
-        <v>3687</v>
-      </c>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
@@ -22671,7 +23084,7 @@
         <v>520000</v>
       </c>
       <c r="I58" s="191">
-        <f>T58/U58</f>
+        <f>T56/U56</f>
         <v>1.0058298001211388</v>
       </c>
       <c r="J58" s="4">
@@ -22691,18 +23104,6 @@
       <c r="R58" s="4">
         <f>R32+R34+R35+R36+R37+R38+R40+R41+R44</f>
         <v>7094</v>
-      </c>
-      <c r="S58" s="4">
-        <f>S32+S34+S35+S36+S37+S38+S40+S41+S44</f>
-        <v>13208</v>
-      </c>
-      <c r="T58" s="4">
-        <f>T32+T34+T35+T36+T37+T38+T40+T41+T44</f>
-        <v>13285</v>
-      </c>
-      <c r="U58" s="4">
-        <f>U32+U34+U35+U36+U37+U38+U40+U41+U44</f>
-        <v>13208</v>
       </c>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
@@ -22733,7 +23134,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <autoFilter ref="S4:Y4" xr:uid="{26E0153C-AB90-43BD-B08A-E56729502946}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S5:Y20">
+      <sortCondition ref="S4"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="12">
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="G25:G26"/>
@@ -22742,11 +23148,10 @@
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="U23:U24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -28991,25 +29396,25 @@
       </c>
     </row>
     <row r="3" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="289" t="s">
+      <c r="B3" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="289" t="s">
+      <c r="C3" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="289" t="s">
+      <c r="D3" s="290" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="289" t="s">
+      <c r="E3" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="291" t="s">
+      <c r="F3" s="292" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="291" t="s">
+      <c r="G3" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="291" t="s">
+      <c r="H3" s="292" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -29027,17 +29432,17 @@
       <c r="N3">
         <v>5</v>
       </c>
-      <c r="S3" s="293" t="s">
+      <c r="S3" s="294" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="293"/>
-      <c r="U3" s="293"/>
+      <c r="T3" s="294"/>
+      <c r="U3" s="294"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="293" t="s">
+      <c r="W3" s="294" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="293"/>
-      <c r="Y3" s="293"/>
+      <c r="X3" s="294"/>
+      <c r="Y3" s="294"/>
       <c r="AA3">
         <v>1</v>
       </c>
@@ -29047,23 +29452,23 @@
       <c r="AC3">
         <v>3</v>
       </c>
-      <c r="AE3" s="294" t="s">
+      <c r="AE3" s="295" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="294"/>
-      <c r="AG3" s="294"/>
-      <c r="AH3" s="294"/>
-      <c r="AK3" s="296" t="s">
+      <c r="AF3" s="295"/>
+      <c r="AG3" s="295"/>
+      <c r="AH3" s="295"/>
+      <c r="AK3" s="297" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="296"/>
-      <c r="AM3" s="296"/>
-      <c r="AN3" s="295" t="s">
+      <c r="AL3" s="297"/>
+      <c r="AM3" s="297"/>
+      <c r="AN3" s="296" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="295"/>
-      <c r="AP3" s="295"/>
-      <c r="AQ3" s="295"/>
+      <c r="AO3" s="296"/>
+      <c r="AP3" s="296"/>
+      <c r="AQ3" s="296"/>
       <c r="AT3">
         <v>1</v>
       </c>
@@ -29093,13 +29498,13 @@
       </c>
     </row>
     <row r="4" spans="2:54" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="293"/>
+      <c r="H4" s="293"/>
       <c r="J4" s="20" t="s">
         <v>1</v>
       </c>
@@ -32630,28 +33035,28 @@
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="289" t="s">
+      <c r="B56" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="291" t="s">
+      <c r="C56" s="292" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="291" t="s">
+      <c r="D56" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="291" t="s">
+      <c r="E56" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="291" t="s">
+      <c r="F56" s="292" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="290"/>
-      <c r="C57" s="292"/>
-      <c r="D57" s="292"/>
-      <c r="E57" s="292"/>
-      <c r="F57" s="292"/>
+      <c r="B57" s="291"/>
+      <c r="C57" s="293"/>
+      <c r="D57" s="293"/>
+      <c r="E57" s="293"/>
+      <c r="F57" s="293"/>
       <c r="I57" s="12" t="s">
         <v>91</v>
       </c>
@@ -33359,34 +33764,34 @@
       </c>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B3" s="289" t="s">
+      <c r="B3" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="289" t="s">
+      <c r="C3" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="291" t="s">
+      <c r="D3" s="292" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="289" t="s">
+      <c r="E3" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="291" t="s">
+      <c r="F3" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="291" t="s">
+      <c r="G3" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="291" t="s">
+      <c r="H3" s="292" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="291" t="s">
+      <c r="I3" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="291" t="s">
+      <c r="J3" s="292" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="291" t="s">
+      <c r="K3" s="292" t="s">
         <v>93</v>
       </c>
       <c r="AB3" s="20" t="s">
@@ -33418,16 +33823,16 @@
       </c>
     </row>
     <row r="4" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292"/>
-      <c r="J4" s="292"/>
-      <c r="K4" s="292"/>
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="293"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="293"/>
+      <c r="H4" s="293"/>
+      <c r="I4" s="293"/>
+      <c r="J4" s="293"/>
+      <c r="K4" s="293"/>
       <c r="M4" s="102" t="s">
         <v>34</v>
       </c>
@@ -40595,17 +41000,17 @@
       <c r="L1" s="11">
         <v>7</v>
       </c>
-      <c r="AI1" s="297" t="s">
+      <c r="AI1" s="298" t="s">
         <v>154</v>
       </c>
-      <c r="AJ1" s="297"/>
-      <c r="AK1" s="297"/>
-      <c r="AL1" s="297"/>
-      <c r="AM1" s="297"/>
-      <c r="AN1" s="297"/>
-      <c r="AO1" s="297"/>
-      <c r="AP1" s="297"/>
-      <c r="AQ1" s="297"/>
+      <c r="AJ1" s="298"/>
+      <c r="AK1" s="298"/>
+      <c r="AL1" s="298"/>
+      <c r="AM1" s="298"/>
+      <c r="AN1" s="298"/>
+      <c r="AO1" s="298"/>
+      <c r="AP1" s="298"/>
+      <c r="AQ1" s="298"/>
     </row>
     <row r="2" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B2" s="131" t="s">
@@ -40638,12 +41043,12 @@
       <c r="L2" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="297" t="s">
+      <c r="N2" s="298" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="297"/>
-      <c r="P2" s="297"/>
-      <c r="Q2" s="297"/>
+      <c r="O2" s="298"/>
+      <c r="P2" s="298"/>
+      <c r="Q2" s="298"/>
       <c r="S2" s="11">
         <v>1</v>
       </c>
@@ -40726,14 +41131,14 @@
       <c r="AB3" s="11">
         <v>7</v>
       </c>
-      <c r="AC3" s="294" t="s">
+      <c r="AC3" s="295" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" s="294"/>
-      <c r="AE3" s="298" t="s">
+      <c r="AD3" s="295"/>
+      <c r="AE3" s="299" t="s">
         <v>162</v>
       </c>
-      <c r="AF3" s="298"/>
+      <c r="AF3" s="299"/>
       <c r="AI3" s="11">
         <v>1</v>
       </c>
@@ -40843,64 +41248,64 @@
       <c r="T4" s="27">
         <v>0.96701655572623324</v>
       </c>
-      <c r="V4" s="289" t="s">
+      <c r="V4" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="291" t="s">
+      <c r="W4" s="292" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="291" t="s">
+      <c r="X4" s="292" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="291" t="s">
+      <c r="Y4" s="292" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="291" t="s">
+      <c r="Z4" s="292" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" s="291" t="s">
+      <c r="AA4" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="291" t="s">
+      <c r="AB4" s="292" t="s">
         <v>165</v>
       </c>
-      <c r="AC4" s="291" t="s">
+      <c r="AC4" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" s="291" t="s">
+      <c r="AD4" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="AE4" s="291" t="s">
+      <c r="AE4" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="AF4" s="291" t="s">
+      <c r="AF4" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="AI4" s="289" t="s">
+      <c r="AI4" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="AJ4" s="289" t="s">
+      <c r="AJ4" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" s="291" t="s">
+      <c r="AK4" s="292" t="s">
         <v>36</v>
       </c>
-      <c r="AL4" s="291" t="s">
+      <c r="AL4" s="292" t="s">
         <v>165</v>
       </c>
-      <c r="AM4" s="291" t="s">
+      <c r="AM4" s="292" t="s">
         <v>89</v>
       </c>
-      <c r="AN4" s="291" t="s">
+      <c r="AN4" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="291" t="s">
+      <c r="AO4" s="292" t="s">
         <v>165</v>
       </c>
-      <c r="AP4" s="291" t="s">
+      <c r="AP4" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="291" t="s">
+      <c r="AQ4" s="292" t="s">
         <v>93</v>
       </c>
       <c r="AR4" s="163"/>
@@ -41011,26 +41416,26 @@
       <c r="T5" s="27">
         <v>0</v>
       </c>
-      <c r="V5" s="290"/>
-      <c r="W5" s="292"/>
-      <c r="X5" s="292"/>
-      <c r="Y5" s="292"/>
-      <c r="Z5" s="292"/>
-      <c r="AA5" s="292"/>
-      <c r="AB5" s="292"/>
-      <c r="AC5" s="292"/>
-      <c r="AD5" s="292"/>
-      <c r="AE5" s="292"/>
-      <c r="AF5" s="292"/>
-      <c r="AI5" s="290"/>
-      <c r="AJ5" s="290"/>
-      <c r="AK5" s="292"/>
-      <c r="AL5" s="292"/>
-      <c r="AM5" s="292"/>
-      <c r="AN5" s="292"/>
-      <c r="AO5" s="292"/>
-      <c r="AP5" s="292"/>
-      <c r="AQ5" s="292"/>
+      <c r="V5" s="291"/>
+      <c r="W5" s="293"/>
+      <c r="X5" s="293"/>
+      <c r="Y5" s="293"/>
+      <c r="Z5" s="293"/>
+      <c r="AA5" s="293"/>
+      <c r="AB5" s="293"/>
+      <c r="AC5" s="293"/>
+      <c r="AD5" s="293"/>
+      <c r="AE5" s="293"/>
+      <c r="AF5" s="293"/>
+      <c r="AI5" s="291"/>
+      <c r="AJ5" s="291"/>
+      <c r="AK5" s="293"/>
+      <c r="AL5" s="293"/>
+      <c r="AM5" s="293"/>
+      <c r="AN5" s="293"/>
+      <c r="AO5" s="293"/>
+      <c r="AP5" s="293"/>
+      <c r="AQ5" s="293"/>
       <c r="AR5" s="163"/>
       <c r="AT5" s="14" t="s">
         <v>13</v>
@@ -46634,26 +47039,26 @@
         <v>12</v>
       </c>
       <c r="N3"/>
-      <c r="AD3" s="299" t="s">
+      <c r="AD3" s="300" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="299"/>
-      <c r="AF3" s="299" t="s">
+      <c r="AE3" s="300"/>
+      <c r="AF3" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="299"/>
-      <c r="AH3" s="300" t="s">
+      <c r="AG3" s="300"/>
+      <c r="AH3" s="301" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="301"/>
-      <c r="AJ3" s="299" t="s">
+      <c r="AI3" s="302"/>
+      <c r="AJ3" s="300" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="299"/>
-      <c r="AL3" s="299" t="s">
+      <c r="AK3" s="300"/>
+      <c r="AL3" s="300" t="s">
         <v>182</v>
       </c>
-      <c r="AM3" s="299" t="s">
+      <c r="AM3" s="300" t="s">
         <v>6</v>
       </c>
     </row>
@@ -46705,28 +47110,28 @@
       <c r="AC4" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="293">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="302">
+      <c r="AD4" s="294">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="303">
         <v>0.75571428571428578</v>
       </c>
-      <c r="AF4" s="293">
+      <c r="AF4" s="294">
         <v>3</v>
       </c>
-      <c r="AG4" s="302">
+      <c r="AG4" s="303">
         <v>1.053409090909091</v>
       </c>
-      <c r="AH4" s="293">
+      <c r="AH4" s="294">
         <v>3</v>
       </c>
-      <c r="AI4" s="302">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="293">
+      <c r="AI4" s="303">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="294">
         <v>3</v>
       </c>
-      <c r="AK4" s="302">
+      <c r="AK4" s="303">
         <v>0.90102442810934147</v>
       </c>
       <c r="AL4" s="23">
@@ -46781,14 +47186,14 @@
         <f>VLOOKUP(B5,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.83472022955523673</v>
       </c>
-      <c r="AD5" s="293"/>
-      <c r="AE5" s="302"/>
-      <c r="AF5" s="293"/>
-      <c r="AG5" s="302"/>
-      <c r="AH5" s="293"/>
-      <c r="AI5" s="302"/>
-      <c r="AJ5" s="293"/>
-      <c r="AK5" s="302"/>
+      <c r="AD5" s="294"/>
+      <c r="AE5" s="303"/>
+      <c r="AF5" s="294"/>
+      <c r="AG5" s="303"/>
+      <c r="AH5" s="294"/>
+      <c r="AI5" s="303"/>
+      <c r="AJ5" s="294"/>
+      <c r="AK5" s="303"/>
       <c r="AL5" s="23">
         <v>1</v>
       </c>
@@ -46979,18 +47384,18 @@
         <f>VLOOKUP(B9,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.90483162518301608</v>
       </c>
-      <c r="AD9" s="299" t="s">
+      <c r="AD9" s="300" t="s">
         <v>43</v>
       </c>
-      <c r="AE9" s="299"/>
-      <c r="AF9" s="299" t="s">
+      <c r="AE9" s="300"/>
+      <c r="AF9" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="AG9" s="299"/>
-      <c r="AH9" s="299" t="s">
+      <c r="AG9" s="300"/>
+      <c r="AH9" s="300" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="299"/>
+      <c r="AI9" s="300"/>
     </row>
     <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -47043,10 +47448,10 @@
       <c r="AE10" s="27">
         <v>0.75</v>
       </c>
-      <c r="AF10" s="302" t="s">
+      <c r="AF10" s="303" t="s">
         <v>183</v>
       </c>
-      <c r="AG10" s="302"/>
+      <c r="AG10" s="303"/>
       <c r="AH10" s="23">
         <v>3</v>
       </c>
@@ -47145,18 +47550,18 @@
         <f>VLOOKUP(B12,'OR AUG'!$J$41:$M$75,'OR AUG'!$M$40,FALSE)</f>
         <v>0.92380952380952386</v>
       </c>
-      <c r="AD12" s="299" t="s">
+      <c r="AD12" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="299"/>
-      <c r="AF12" s="299" t="s">
+      <c r="AE12" s="300"/>
+      <c r="AF12" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="AG12" s="299"/>
-      <c r="AH12" s="299" t="s">
+      <c r="AG12" s="300"/>
+      <c r="AH12" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="AI12" s="299"/>
+      <c r="AI12" s="300"/>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
@@ -49491,37 +49896,37 @@
         <f>G3/F3</f>
         <v>1.0391304347826087</v>
       </c>
-      <c r="J3" s="289" t="s">
+      <c r="J3" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="289" t="s">
+      <c r="K3" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="289" t="s">
+      <c r="L3" s="290" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="289" t="s">
+      <c r="M3" s="290" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="291" t="s">
+      <c r="N3" s="292" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="291" t="s">
+      <c r="O3" s="292" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="289" t="s">
+      <c r="P3" s="290" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="291" t="s">
+      <c r="Q3" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="291" t="s">
+      <c r="R3" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="291" t="s">
+      <c r="S3" s="292" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="291" t="s">
+      <c r="T3" s="292" t="s">
         <v>93</v>
       </c>
       <c r="W3">
@@ -49579,17 +49984,17 @@
         <f t="shared" ref="H4:H16" si="1">G4/F4</f>
         <v>1.0152173913043478</v>
       </c>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="290"/>
-      <c r="N4" s="292"/>
-      <c r="O4" s="292"/>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="292"/>
-      <c r="R4" s="292"/>
-      <c r="S4" s="292"/>
-      <c r="T4" s="292"/>
+      <c r="J4" s="291"/>
+      <c r="K4" s="291"/>
+      <c r="L4" s="291"/>
+      <c r="M4" s="291"/>
+      <c r="N4" s="293"/>
+      <c r="O4" s="293"/>
+      <c r="P4" s="291"/>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="293"/>
+      <c r="S4" s="293"/>
+      <c r="T4" s="293"/>
       <c r="W4" s="192" t="s">
         <v>34</v>
       </c>
